--- a/Oracle/kospi_quarter_data.xlsx
+++ b/Oracle/kospi_quarter_data.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="kospi" sheetId="5" r:id="rId2"/>
+    <sheet name="kospi" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -622,11 +621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR86"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2064,440 +2063,43 @@
         <v>1.0067351685709174</v>
       </c>
     </row>
-    <row r="17" spans="4:69" x14ac:dyDescent="0.4">
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>6</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
-      <c r="M17">
-        <v>8</v>
-      </c>
-      <c r="N17">
-        <v>9</v>
-      </c>
-      <c r="O17">
-        <v>10</v>
-      </c>
-      <c r="P17">
-        <v>11</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-      <c r="R17">
-        <v>13</v>
-      </c>
-      <c r="S17">
-        <v>14</v>
-      </c>
-      <c r="T17">
-        <v>15</v>
-      </c>
-      <c r="U17">
-        <v>16</v>
-      </c>
-      <c r="V17">
-        <v>17</v>
-      </c>
-      <c r="W17">
-        <v>18</v>
-      </c>
-      <c r="X17">
-        <v>19</v>
-      </c>
-      <c r="Y17">
-        <v>20</v>
-      </c>
-      <c r="Z17">
-        <v>21</v>
-      </c>
-      <c r="AA17">
-        <v>22</v>
-      </c>
-      <c r="AB17">
-        <v>23</v>
-      </c>
-      <c r="AC17">
-        <v>24</v>
-      </c>
-      <c r="AD17">
-        <v>25</v>
-      </c>
-      <c r="AE17">
-        <v>26</v>
-      </c>
-      <c r="AF17">
-        <v>27</v>
-      </c>
-      <c r="AG17">
-        <v>28</v>
-      </c>
-      <c r="AH17">
-        <v>29</v>
-      </c>
-      <c r="AI17">
-        <v>30</v>
-      </c>
-      <c r="AJ17">
-        <v>31</v>
-      </c>
-      <c r="AK17">
-        <v>32</v>
-      </c>
-      <c r="AL17">
-        <v>33</v>
-      </c>
-      <c r="AM17">
-        <v>34</v>
-      </c>
-      <c r="AN17">
-        <v>35</v>
-      </c>
-      <c r="AO17">
-        <v>36</v>
-      </c>
-      <c r="AP17">
-        <v>37</v>
-      </c>
-      <c r="AQ17">
-        <v>38</v>
-      </c>
-      <c r="AR17">
-        <v>39</v>
-      </c>
-      <c r="AS17">
-        <v>40</v>
-      </c>
-      <c r="AT17">
-        <v>41</v>
-      </c>
-      <c r="AU17">
-        <v>42</v>
-      </c>
-      <c r="AV17">
-        <v>43</v>
-      </c>
-      <c r="AW17">
-        <v>44</v>
-      </c>
-      <c r="AX17">
-        <v>45</v>
-      </c>
-      <c r="AY17">
-        <v>46</v>
-      </c>
-      <c r="AZ17">
-        <v>47</v>
-      </c>
-      <c r="BA17">
-        <v>48</v>
-      </c>
-      <c r="BB17">
-        <v>49</v>
-      </c>
-      <c r="BC17">
-        <v>50</v>
-      </c>
-      <c r="BD17">
-        <v>51</v>
-      </c>
-      <c r="BE17">
-        <v>52</v>
-      </c>
-      <c r="BF17">
-        <v>53</v>
-      </c>
-      <c r="BG17">
-        <v>54</v>
-      </c>
-      <c r="BH17">
-        <v>55</v>
-      </c>
-      <c r="BI17">
-        <v>56</v>
-      </c>
-      <c r="BJ17">
-        <v>57</v>
-      </c>
-      <c r="BK17">
-        <v>58</v>
-      </c>
-      <c r="BL17">
-        <v>59</v>
-      </c>
-      <c r="BM17">
-        <v>60</v>
-      </c>
-      <c r="BN17">
-        <v>61</v>
-      </c>
-      <c r="BO17">
-        <v>62</v>
-      </c>
-      <c r="BP17">
-        <v>63</v>
-      </c>
-      <c r="BQ17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="4:69" x14ac:dyDescent="0.4">
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1.0708634268500701</v>
-      </c>
-      <c r="F18">
-        <v>0.89056277643151205</v>
-      </c>
-      <c r="G18">
-        <v>1.19991246931669</v>
-      </c>
-      <c r="H18">
-        <v>1.28944321984173</v>
-      </c>
-      <c r="I18">
-        <v>0.97061898144162495</v>
-      </c>
-      <c r="J18">
-        <v>0.92813157294543902</v>
-      </c>
-      <c r="K18">
-        <v>0.98566552901023896</v>
-      </c>
-      <c r="L18">
-        <v>0.78777008310249297</v>
-      </c>
-      <c r="M18">
-        <v>1.0964713328761999</v>
-      </c>
-      <c r="N18">
-        <v>1.21890834455775</v>
-      </c>
-      <c r="O18">
-        <v>1.04647705746158</v>
-      </c>
-      <c r="P18">
-        <v>1.12255339476297</v>
-      </c>
-      <c r="Q18">
-        <v>0.90237183363569096</v>
-      </c>
-      <c r="R18">
-        <v>0.98546785802928705</v>
-      </c>
-      <c r="S18">
-        <v>1.08938533415607</v>
-      </c>
-      <c r="T18">
-        <v>1.16721190192701</v>
-      </c>
-      <c r="U18">
-        <v>0.947114051420195</v>
-      </c>
-      <c r="V18">
-        <v>1.1255437510456701</v>
-      </c>
-      <c r="W18">
-        <v>1.1977554395287899</v>
-      </c>
-      <c r="X18">
-        <v>1.0632077813285301</v>
-      </c>
-      <c r="Y18">
-        <v>0.96555849802659899</v>
-      </c>
-      <c r="Z18">
-        <v>1.0293988757253301</v>
-      </c>
-      <c r="AA18">
-        <v>1.05750754167186</v>
-      </c>
-      <c r="AB18">
-        <v>0.991594830577881</v>
-      </c>
-      <c r="AC18">
-        <v>1.18209943513897</v>
-      </c>
-      <c r="AD18">
-        <v>1.1090991988536401</v>
-      </c>
-      <c r="AE18">
-        <v>1.0136566510773699</v>
-      </c>
-      <c r="AF18">
-        <v>0.90086166032886295</v>
-      </c>
-      <c r="AG18">
-        <v>1.0870424396204399</v>
-      </c>
-      <c r="AH18">
-        <v>0.79770990313610901</v>
-      </c>
-      <c r="AI18">
-        <v>0.73385742892009698</v>
-      </c>
-      <c r="AJ18">
-        <v>0.98788185033763598</v>
-      </c>
-      <c r="AK18">
-        <v>1.3090508342168401</v>
-      </c>
-      <c r="AL18">
-        <v>1.1529586450407401</v>
-      </c>
-      <c r="AM18">
-        <v>0.98166827903652099</v>
-      </c>
-      <c r="AN18">
-        <v>1.01779526965953</v>
-      </c>
-      <c r="AO18">
-        <v>1.0310459027919101</v>
-      </c>
-      <c r="AP18">
-        <v>1.0562683558538299</v>
-      </c>
-      <c r="AQ18">
-        <v>1.0930244410718699</v>
-      </c>
-      <c r="AR18">
-        <v>1.02388415408128</v>
-      </c>
-      <c r="AS18">
-        <v>1.0959595192915801</v>
-      </c>
-      <c r="AT18">
-        <v>0.87195102244342904</v>
-      </c>
-      <c r="AU18">
-        <v>0.99202033305975401</v>
-      </c>
-      <c r="AV18">
-        <v>1.1031929884492999</v>
-      </c>
-      <c r="AW18">
-        <v>0.91691060136151803</v>
-      </c>
-      <c r="AX18">
-        <v>1.02759777951326</v>
-      </c>
-      <c r="AY18">
-        <v>1.0151023426347101</v>
-      </c>
-      <c r="AZ18">
-        <v>1.05122445985663</v>
-      </c>
-      <c r="BA18">
-        <v>0.98598686268376501</v>
-      </c>
-      <c r="BB18">
-        <v>0.961692200319191</v>
-      </c>
-      <c r="BC18">
-        <v>1.06743163963378</v>
-      </c>
-      <c r="BD18">
-        <v>0.96445126966543204</v>
-      </c>
-      <c r="BE18">
-        <v>1.00989874491013</v>
-      </c>
-      <c r="BF18">
-        <v>1.0272476105866299</v>
-      </c>
-      <c r="BG18">
-        <v>0.95405428522552305</v>
-      </c>
-      <c r="BH18">
-        <v>0.99826671647366405</v>
-      </c>
-      <c r="BI18">
-        <v>1.0498785093824601</v>
-      </c>
-      <c r="BJ18">
-        <v>0.90431224575143498</v>
-      </c>
-      <c r="BK18">
-        <v>1.0404805322430599</v>
-      </c>
-      <c r="BL18">
-        <v>0.96058426603095004</v>
-      </c>
-      <c r="BM18">
-        <v>1.0415378467621501</v>
-      </c>
-      <c r="BN18">
-        <v>1.0422892855700401</v>
-      </c>
-      <c r="BO18">
-        <v>0.98130918073281104</v>
-      </c>
-      <c r="BP18">
-        <v>1.06170103550733</v>
-      </c>
-      <c r="BQ18">
-        <v>1.1242265477181099</v>
-      </c>
-    </row>
-    <row r="20" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="4:69" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.4">
@@ -2671,354 +2273,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <f>Sheet3!E15</f>
-        <v>1.0589171423629129</v>
-      </c>
-      <c r="B1">
-        <f>Sheet3!F15</f>
-        <v>0.89046981181390494</v>
-      </c>
-      <c r="C1">
-        <f>Sheet3!G15</f>
-        <v>1.1812111316981893</v>
-      </c>
-      <c r="D1">
-        <f>Sheet3!H15</f>
-        <v>1.2734939197689046</v>
-      </c>
-      <c r="E1">
-        <f>Sheet3!I15</f>
-        <v>0.97123135647995706</v>
-      </c>
-      <c r="F1">
-        <f>Sheet3!J15</f>
-        <v>0.92466097438473127</v>
-      </c>
-      <c r="G1">
-        <f>Sheet3!K15</f>
-        <v>0.98424769147202607</v>
-      </c>
-      <c r="H1">
-        <f>Sheet3!L15</f>
-        <v>0.7939155629139073</v>
-      </c>
-      <c r="I1">
-        <f>Sheet3!M15</f>
-        <v>1.1007768103852771</v>
-      </c>
-      <c r="J1">
-        <f>Sheet3!N15</f>
-        <v>1.1989990843358278</v>
-      </c>
-      <c r="K1">
-        <f>Sheet3!O15</f>
-        <v>1.0483363398159242</v>
-      </c>
-      <c r="L1">
-        <f>Sheet3!P15</f>
-        <v>1.1095732120877189</v>
-      </c>
-      <c r="M1">
-        <f>Sheet3!Q15</f>
-        <v>0.90991827216952303</v>
-      </c>
-      <c r="N1">
-        <f>Sheet3!R15</f>
-        <v>0.99966411226114649</v>
-      </c>
-      <c r="O1">
-        <f>Sheet3!S15</f>
-        <v>1.0926988314645891</v>
-      </c>
-      <c r="P1">
-        <f>Sheet3!T15</f>
-        <v>1.1518119490695398</v>
-      </c>
-      <c r="Q1">
-        <f>Sheet3!U15</f>
-        <v>0.95931221325739602</v>
-      </c>
-      <c r="R1">
-        <f>Sheet3!V15</f>
-        <v>1.1165933148493623</v>
-      </c>
-      <c r="S1">
-        <f>Sheet3!W15</f>
-        <v>1.1976406081249482</v>
-      </c>
-      <c r="T1">
-        <f>Sheet3!X15</f>
-        <v>1.0571510050561104</v>
-      </c>
-      <c r="U1">
-        <f>Sheet3!Y15</f>
-        <v>0.96070983311339408</v>
-      </c>
-      <c r="V1">
-        <f>Sheet3!Z15</f>
-        <v>1.0265917887227745</v>
-      </c>
-      <c r="W1">
-        <f>Sheet3!AA15</f>
-        <v>1.0587474311397609</v>
-      </c>
-      <c r="X1">
-        <f>Sheet3!AB15</f>
-        <v>0.98961744436919163</v>
-      </c>
-      <c r="Y1">
-        <f>Sheet3!AC15</f>
-        <v>1.2000719657950811</v>
-      </c>
-      <c r="Z1">
-        <f>Sheet3!AD15</f>
-        <v>1.1013163541868765</v>
-      </c>
-      <c r="AA1">
-        <f>Sheet3!AE15</f>
-        <v>1.0174884157929576</v>
-      </c>
-      <c r="AB1">
-        <f>Sheet3!AF15</f>
-        <v>0.89801678908709337</v>
-      </c>
-      <c r="AC1">
-        <f>Sheet3!AG15</f>
-        <v>1.0820275528446734</v>
-      </c>
-      <c r="AD1">
-        <f>Sheet3!AH15</f>
-        <v>0.79601732162719629</v>
-      </c>
-      <c r="AE1">
-        <f>Sheet3!AI15</f>
-        <v>0.7299150748860429</v>
-      </c>
-      <c r="AF1">
-        <f>Sheet3!AJ15</f>
-        <v>0.98788182924902657</v>
-      </c>
-      <c r="AG1">
-        <f>Sheet3!AK15</f>
-        <v>1.31312380647771</v>
-      </c>
-      <c r="AH1">
-        <f>Sheet3!AL15</f>
-        <v>1.1403835545780827</v>
-      </c>
-      <c r="AI1">
-        <f>Sheet3!AM15</f>
-        <v>0.9772277538712818</v>
-      </c>
-      <c r="AJ1">
-        <f>Sheet3!AN15</f>
-        <v>1.0250578554898431</v>
-      </c>
-      <c r="AK1">
-        <f>Sheet3!AO15</f>
-        <v>1.0292678949942933</v>
-      </c>
-      <c r="AL1">
-        <f>Sheet3!AP15</f>
-        <v>1.0618431073876617</v>
-      </c>
-      <c r="AM1">
-        <f>Sheet3!AQ15</f>
-        <v>1.0928876775211591</v>
-      </c>
-      <c r="AN1">
-        <f>Sheet3!AR15</f>
-        <v>1.0182030105584812</v>
-      </c>
-      <c r="AO1">
-        <f>Sheet3!AS15</f>
-        <v>1.1047646057855927</v>
-      </c>
-      <c r="AP1">
-        <f>Sheet3!AT15</f>
-        <v>0.87754320947317821</v>
-      </c>
-      <c r="AQ1">
-        <f>Sheet3!AU15</f>
-        <v>0.98266058900808995</v>
-      </c>
-      <c r="AR1">
-        <f>Sheet3!AV15</f>
-        <v>1.0989115079214726</v>
-      </c>
-      <c r="AS1">
-        <f>Sheet3!AW15</f>
-        <v>0.90800147765053563</v>
-      </c>
-      <c r="AT1">
-        <f>Sheet3!AX15</f>
-        <v>1.0334423668407948</v>
-      </c>
-      <c r="AU1">
-        <f>Sheet3!AY15</f>
-        <v>1.0145817586293777</v>
-      </c>
-      <c r="AV1">
-        <f>Sheet3!AZ15</f>
-        <v>1.0484194733302292</v>
-      </c>
-      <c r="AW1">
-        <f>Sheet3!BA15</f>
-        <v>0.98744627409955144</v>
-      </c>
-      <c r="AX1">
-        <f>Sheet3!BB15</f>
-        <v>0.9626745958371854</v>
-      </c>
-      <c r="AY1">
-        <f>Sheet3!BC15</f>
-        <v>1.0615201727610624</v>
-      </c>
-      <c r="AZ1">
-        <f>Sheet3!BD15</f>
-        <v>0.96827182168059589</v>
-      </c>
-      <c r="BA1">
-        <f>Sheet3!BE15</f>
-        <v>1.0075606442456779</v>
-      </c>
-      <c r="BB1">
-        <f>Sheet3!BF15</f>
-        <v>1.0368829450214541</v>
-      </c>
-      <c r="BC1">
-        <f>Sheet3!BG15</f>
-        <v>0.95757394104054072</v>
-      </c>
-      <c r="BD1">
-        <f>Sheet3!BH15</f>
-        <v>1.0025343551530206</v>
-      </c>
-      <c r="BE1">
-        <f>Sheet3!BI15</f>
-        <v>1.064961224695337</v>
-      </c>
-      <c r="BF1">
-        <f>Sheet3!BJ15</f>
-        <v>0.9180489880839795</v>
-      </c>
-      <c r="BG1">
-        <f>Sheet3!BK15</f>
-        <v>1.026000648986088</v>
-      </c>
-      <c r="BH1">
-        <f>Sheet3!BL15</f>
-        <v>0.96219320572096967</v>
-      </c>
-      <c r="BI1">
-        <f>Sheet3!BM15</f>
-        <v>1.0348209906817067</v>
-      </c>
-      <c r="BJ1">
-        <f>Sheet3!BN15</f>
-        <v>1.0258394675809217</v>
-      </c>
-      <c r="BK1">
-        <f>Sheet3!BO15</f>
-        <v>0.97485071142456925</v>
-      </c>
-      <c r="BL1">
-        <f>Sheet3!BP15</f>
-        <v>1.0545304212797708</v>
-      </c>
-      <c r="BM1">
-        <f>Sheet3!BQ15</f>
-        <v>1.1222676942494885</v>
-      </c>
-      <c r="BN1">
-        <f>Sheet3!BR15</f>
-        <v>1.0067351685709174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15"/>
-      <c r="BE2" s="15"/>
-      <c r="BF2" s="15"/>
-      <c r="BG2" s="15"/>
-      <c r="BH2" s="15"/>
-      <c r="BI2" s="15"/>
-      <c r="BJ2" s="15"/>
-      <c r="BK2" s="15"/>
-      <c r="BL2" s="15"/>
-      <c r="BM2" s="15"/>
-      <c r="BN2" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>